--- a/OrderData.xlsx
+++ b/OrderData.xlsx
@@ -7,10 +7,501 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Customer Data" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="Customer Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="162">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jasem alzaabi</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Abu Dhabi &amp; Al Ain</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>jbsalzaabi@gmail.com</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>REAR SPOILER</t>
+  </si>
+  <si>
+    <t>INTERIOR ACCENT LIGHTING</t>
+  </si>
+  <si>
+    <t>EXTERNAL GROUND LIGHTING</t>
+  </si>
+  <si>
+    <t>bruno grippay</t>
+  </si>
+  <si>
+    <t>bruno.grippay@nissan-me.ae</t>
+  </si>
+  <si>
+    <t>Muthukumaran</t>
+  </si>
+  <si>
+    <t>m@gmail</t>
+  </si>
+  <si>
+    <t>HIDEAWAY TRUNK NET</t>
+  </si>
+  <si>
+    <t>Hamad</t>
+  </si>
+  <si>
+    <t>srt.6.1l@hotmail.com</t>
+  </si>
+  <si>
+    <t>SPLASH GUARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imad El Ibrahim </t>
+  </si>
+  <si>
+    <t>imadelibrahim@gmail.com</t>
+  </si>
+  <si>
+    <t>CARGO ORGANIZER</t>
+  </si>
+  <si>
+    <t>LUGGAGE NET</t>
+  </si>
+  <si>
+    <t>CHROME BODY SIDE MOLDINGS</t>
+  </si>
+  <si>
+    <t>ILLUMINATED KICK PLATES</t>
+  </si>
+  <si>
+    <t>SLIDING TRUNK ORGANIZER TRAY</t>
+  </si>
+  <si>
+    <t>Jhenard</t>
+  </si>
+  <si>
+    <t>jhenard05@gmail.com</t>
+  </si>
+  <si>
+    <t>chetan</t>
+  </si>
+  <si>
+    <t>chetudarji@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>ALL-SEASON FLOOR MATS</t>
+  </si>
+  <si>
+    <t>Zackir</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>zackir_07@rediffmail.com</t>
+  </si>
+  <si>
+    <t>raees</t>
+  </si>
+  <si>
+    <t>raeestaha6@gmail.com</t>
+  </si>
+  <si>
+    <t>REAR DIFFUSER</t>
+  </si>
+  <si>
+    <t>SHIFT KNOB</t>
+  </si>
+  <si>
+    <t>INTERIOR APPLIQUES - BLACK</t>
+  </si>
+  <si>
+    <t>Tamer Bassuony</t>
+  </si>
+  <si>
+    <t>tamer.bassuony@yahoo.com</t>
+  </si>
+  <si>
+    <t>ﺪﻤﺤﻣ</t>
+  </si>
+  <si>
+    <t>m-alnaimi1990@outlook.com</t>
+  </si>
+  <si>
+    <t>INTERIOR LIGHTING PACKAGE</t>
+  </si>
+  <si>
+    <t>Arslan Ali</t>
+  </si>
+  <si>
+    <t>Dubai &amp; Northern Emirates</t>
+  </si>
+  <si>
+    <t>arslan.anf@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arslan Ali </t>
+  </si>
+  <si>
+    <t>Faycal</t>
+  </si>
+  <si>
+    <t>faycalhaddouch@gmail.com</t>
+  </si>
+  <si>
+    <t>PREMIUM SPOILER</t>
+  </si>
+  <si>
+    <t>ROCKER PANEL MOLDING</t>
+  </si>
+  <si>
+    <t>mm6599941@icloud.com</t>
+  </si>
+  <si>
+    <t>Hussein alezerij</t>
+  </si>
+  <si>
+    <t>hussein.redha88@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohameed ali alrasheed</t>
+  </si>
+  <si>
+    <t>mhsuad2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>alhassani02@hotmail.com</t>
+  </si>
+  <si>
+    <t>faisal aboqamaz</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>f_6_1@hotmail.com</t>
+  </si>
+  <si>
+    <t>MOON ROOF WIND DEFLECTOR</t>
+  </si>
+  <si>
+    <t>Mohammed ali</t>
+  </si>
+  <si>
+    <t>mohammed.ali.alshehhi1@gmail.com</t>
+  </si>
+  <si>
+    <t>CHROME REAR BUMPER PROTECTOR</t>
+  </si>
+  <si>
+    <t>Majid</t>
+  </si>
+  <si>
+    <t>mmqble@gmail.com</t>
+  </si>
+  <si>
+    <t>ﺪﻤﺣا</t>
+  </si>
+  <si>
+    <t>ahmedghawas@icloed.com</t>
+  </si>
+  <si>
+    <t>Muhammad Usman</t>
+  </si>
+  <si>
+    <t>usman_soofi@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هدﻮﻤﺣ</t>
+  </si>
+  <si>
+    <t>hlhlh999@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mana Saaed</t>
+  </si>
+  <si>
+    <t>mana.saeed@outlook.com</t>
+  </si>
+  <si>
+    <t>Munavar</t>
+  </si>
+  <si>
+    <t>mm.munavar@gmail.com</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>arsathishchandran@gmail.com</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>hina.bsh@gmail.com</t>
+  </si>
+  <si>
+    <t>RUBBER FLOOR MATS</t>
+  </si>
+  <si>
+    <t>Sundaram Subramanian</t>
+  </si>
+  <si>
+    <t>sundaram11882@gmail.com</t>
+  </si>
+  <si>
+    <t>ALLUMINIUM SIDE STEPS</t>
+  </si>
+  <si>
+    <t>TRUNK FINISHER</t>
+  </si>
+  <si>
+    <t>TEXTILE TRUNK MAT</t>
+  </si>
+  <si>
+    <t>MIRROR CAPS</t>
+  </si>
+  <si>
+    <t>WINDOW DEFLECTOR</t>
+  </si>
+  <si>
+    <t>REAR BUMPER PROTECTOR</t>
+  </si>
+  <si>
+    <t>TRUNK LINER</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>@____mralihotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ﺰﻳﺰﻌﻟاﺪﺒﻋ</t>
+  </si>
+  <si>
+    <t>kkfn2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohamad gamal</t>
+  </si>
+  <si>
+    <t>maxman8613@gmail.com</t>
+  </si>
+  <si>
+    <t>Yahya Al Hinai</t>
+  </si>
+  <si>
+    <t>ymn5005@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>moha.elassabi@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajmal Veettilayil</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Ajmal.vj@gmail.com</t>
+  </si>
+  <si>
+    <t>MUDGUARDS</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>ahmdalalami@gamil.com</t>
+  </si>
+  <si>
+    <t>yawar khan</t>
+  </si>
+  <si>
+    <t>yawarkhanmail@gmail.com</t>
+  </si>
+  <si>
+    <t>WINDOW SIDE DEFLECTOR (4 PCS)</t>
+  </si>
+  <si>
+    <t>Mahmood Al Lawati</t>
+  </si>
+  <si>
+    <t>mahmoodallawati67@gmail.com</t>
+  </si>
+  <si>
+    <t>meshal alotaibi</t>
+  </si>
+  <si>
+    <t>br8a@hotmail.com</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>bm239965@gmail.com</t>
+  </si>
+  <si>
+    <t>gartz</t>
+  </si>
+  <si>
+    <t>wposedio@gmail.com</t>
+  </si>
+  <si>
+    <t>SIDE SKID PLATE – SILVER</t>
+  </si>
+  <si>
+    <t>TRUNK NET</t>
+  </si>
+  <si>
+    <t>REAR SPOILER (PRIMER)</t>
+  </si>
+  <si>
+    <t>EXHAUST TUBE FINISHER</t>
+  </si>
+  <si>
+    <t>khaled</t>
+  </si>
+  <si>
+    <t>k-series@hotmail.com</t>
+  </si>
+  <si>
+    <t>khalied</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>BLACK ADHESIVE REAR BUMPER PROTECTOR</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>aasas</t>
+  </si>
+  <si>
+    <t>cccccc</t>
+  </si>
+  <si>
+    <t>SPLASH GUARDS</t>
+  </si>
+  <si>
+    <t>Lucas Donoso</t>
+  </si>
+  <si>
+    <t>lucas@maruboshi.nl</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>hhhg</t>
+  </si>
+  <si>
+    <t>tazimtazim2012@gmail.com</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>Lucas D</t>
+  </si>
+  <si>
+    <t>lucasdonoso@live.com</t>
+  </si>
+  <si>
+    <t>TRUNK ORGANIZER</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>t@t.com</t>
+  </si>
+  <si>
+    <t>taz</t>
+  </si>
+  <si>
+    <t>tea@test.com</t>
+  </si>
+  <si>
+    <t>Hicham test</t>
+  </si>
+  <si>
+    <t>hicham.elalaoui@nissan-me.ae</t>
+  </si>
+  <si>
+    <t>TRUNK PROTECTOR – RUBBER</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>rashed1@qaaw.ga</t>
+  </si>
+  <si>
+    <t>tasnim</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tasnim2</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>tasnim1</t>
+  </si>
+  <si>
+    <t>test@twst.com</t>
+  </si>
+  <si>
+    <t>Tasnim</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,9 +876,3981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I390"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>26</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>29</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>30</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>33</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>34</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>35</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>36</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180" t="s">
+        <v>89</v>
+      </c>
+      <c r="F180" t="s">
+        <v>90</v>
+      </c>
+      <c r="G180" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" t="s">
+        <v>92</v>
+      </c>
+      <c r="I180" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>37</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>64</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>38</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>39</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>40</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>41</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>87</v>
+      </c>
+      <c r="D205" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>42</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>87</v>
+      </c>
+      <c r="D210" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>43</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>44</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>45</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>46</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>47</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>48</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="B237" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>49</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>50</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>121</v>
+      </c>
+      <c r="D250" t="s">
+        <v>84</v>
+      </c>
+      <c r="E250" t="s">
+        <v>122</v>
+      </c>
+      <c r="F250" t="s">
+        <v>123</v>
+      </c>
+      <c r="G250" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>51</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>52</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+      <c r="B257" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>53</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+      <c r="B262" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" t="s">
+        <v>67</v>
+      </c>
+      <c r="D265" t="s">
+        <v>31</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="F265" t="s">
+        <v>24</v>
+      </c>
+      <c r="G265" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>54</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>55</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>51</v>
+      </c>
+      <c r="D275" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>56</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+      <c r="B277" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>51</v>
+      </c>
+      <c r="D280" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>57</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>51</v>
+      </c>
+      <c r="D285" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>58</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+      <c r="B287" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" t="s">
+        <v>51</v>
+      </c>
+      <c r="D290" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>59</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+      <c r="B292" t="s">
+        <v>2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>51</v>
+      </c>
+      <c r="D295" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>60</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="B297" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" t="s">
+        <v>51</v>
+      </c>
+      <c r="D300" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>61</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+      <c r="B302" t="s">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>62</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>63</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="B312" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="B313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>52</v>
+      </c>
+      <c r="D315" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>64</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317" t="s">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>65</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="B322" t="s">
+        <v>2</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" t="s">
+        <v>19</v>
+      </c>
+      <c r="D325" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>66</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="B327" t="s">
+        <v>2</v>
+      </c>
+      <c r="C327" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>67</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="B332" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="B335" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" t="s">
+        <v>145</v>
+      </c>
+      <c r="D335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>68</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+      <c r="B337" t="s">
+        <v>2</v>
+      </c>
+      <c r="C337" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="B339" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>69</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+      <c r="B342" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="B345" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>70</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+      <c r="B347" t="s">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>71</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+      <c r="B352" t="s">
+        <v>2</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" t="s">
+        <v>24</v>
+      </c>
+      <c r="E355" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>72</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+      <c r="B357" t="s">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" t="s">
+        <v>10</v>
+      </c>
+      <c r="E360" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>73</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+      <c r="B362" t="s">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+      <c r="B363" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>52</v>
+      </c>
+      <c r="D365" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>74</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+      <c r="B367" t="s">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>75</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+      <c r="B372" t="s">
+        <v>2</v>
+      </c>
+      <c r="C372" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+      <c r="B375" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>76</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+      <c r="B377" t="s">
+        <v>2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" t="s">
+        <v>19</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>77</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+      <c r="B382" t="s">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+      <c r="B383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>19</v>
+      </c>
+      <c r="D385" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>78</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+      <c r="B387" t="s">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="A196:A200"/>
+    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A266:A270"/>
+    <mergeCell ref="A271:A275"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="A281:A285"/>
+    <mergeCell ref="A286:A290"/>
+    <mergeCell ref="A291:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A315"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A325"/>
+    <mergeCell ref="A326:A330"/>
+    <mergeCell ref="A331:A335"/>
+    <mergeCell ref="A336:A340"/>
+    <mergeCell ref="A341:A345"/>
+    <mergeCell ref="A346:A350"/>
+    <mergeCell ref="A351:A355"/>
+    <mergeCell ref="A356:A360"/>
+    <mergeCell ref="A361:A365"/>
+    <mergeCell ref="A366:A370"/>
+    <mergeCell ref="A371:A375"/>
+    <mergeCell ref="A376:A380"/>
+    <mergeCell ref="A381:A385"/>
+    <mergeCell ref="A386:A390"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
